--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/12 CORTE DE FORMAS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/12 CORTE DE FORMAS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE65058A-CD1A-4243-84CA-513B3B8156B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -60,12 +55,6 @@
     <t xml:space="preserve">Cálculos </t>
   </si>
   <si>
-    <t xml:space="preserve">                                               Entidad XXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  Auditoria de Estados Financieros</t>
-  </si>
-  <si>
     <t>FECHA DE DEPÓSITO</t>
   </si>
   <si>
@@ -96,9 +85,6 @@
     <t>Corte de Formas</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                           Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
     <t>DOCUMENTO</t>
   </si>
   <si>
@@ -202,12 +188,21 @@
   </si>
   <si>
     <t>B-12</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,9 +432,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -501,6 +493,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +546,7 @@
         <xdr:cNvPr id="4" name="Triángulo rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FFC9DE-63E8-4405-B8FB-47FEE8D7206F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -616,7 +614,7 @@
         <xdr:cNvPr id="5" name="Flecha: curvada hacia la derecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44FD80A-8C87-4E1D-BAF5-5DE70F8D7F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,7 +686,7 @@
         <xdr:cNvPr id="6" name="Flecha: pentágono 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D8FE0D-A4AE-4E3C-A7B7-4003A0C6A2E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -756,7 +754,7 @@
         <xdr:cNvPr id="7" name="Flecha: a la derecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B0D317-520F-4DC6-9EE9-7F8A2D433D9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,7 +819,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -882,7 +886,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1029" name="Text Box 5"/>
+        <xdr:cNvPr id="1029" name="Text Box 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -940,20 +950,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B20:L24" headerRowDxfId="0">
-  <autoFilter ref="B20:L24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B20:L24" headerRowDxfId="0">
+  <autoFilter ref="B20:L24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="DOCUMENTO" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="FECHA"/>
-    <tableColumn id="3" name="MONTO DOCUMENTO"/>
-    <tableColumn id="4" name="DEPÓSITO / TRANSFERENCIA"/>
-    <tableColumn id="5" name="FECHA DE DEPÓSITO"/>
-    <tableColumn id="6" name="MONTO DE DEPÓSITO"/>
-    <tableColumn id="7" name="DIFERENCIAS"/>
-    <tableColumn id="8" name="ESTADO DE LA CUENTA"/>
-    <tableColumn id="9" name="MÉTODO DE PAGO"/>
-    <tableColumn id="10" name="NOTAS/COMENTARIOS"/>
-    <tableColumn id="11" name="ANTIGÜEDAD (días)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DOCUMENTO" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="FECHA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MONTO DOCUMENTO"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DEPÓSITO / TRANSFERENCIA"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="FECHA DE DEPÓSITO"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MONTO DE DEPÓSITO"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DIFERENCIAS"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ESTADO DE LA CUENTA"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="MÉTODO DE PAGO"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NOTAS/COMENTARIOS"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ANTIGÜEDAD (días)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1255,7 +1265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1270,11 +1280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,8 +1304,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M2" s="13" t="s">
-        <v>56</v>
+      <c r="M2" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1303,189 +1313,196 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="L4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="L5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="L6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="11"/>
+      <c r="E7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="L7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="E11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+    </row>
+    <row r="12" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="E12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="18" spans="2:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F18" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="20" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="L4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="L5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="L6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="E11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="2:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="E12" s="25" t="s">
+      <c r="G20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="18" spans="2:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="F18" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="20" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="H20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="20" t="s">
+      <c r="J20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="K20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="L20" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="J21" t="s">
         <v>39</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s">
-        <v>42</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1496,34 +1513,34 @@
     </row>
     <row r="22" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
         <v>44</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" t="s">
-        <v>48</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1531,31 +1548,31 @@
     </row>
     <row r="23" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1566,31 +1583,31 @@
     </row>
     <row r="24" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1600,29 +1617,29 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="C26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="N26" s="17"/>
+      <c r="N26" s="16"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
@@ -1663,73 +1680,79 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="I38" s="35" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="I38" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
